--- a/SuRGE_Sharepoint/data/RTP/CH4_044_Eureka/dataSheets/surgeData44.xlsx
+++ b/SuRGE_Sharepoint/data/RTP/CH4_044_Eureka/dataSheets/surgeData44.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/RTP/CH4_044_Eureka/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/RTP/CH4_044_Eureka/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1144" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800E9E27-C881-441C-B135-9C1357ACEEB3}"/>
+  <xr:revisionPtr revIDLastSave="1145" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB57BCF-1A9F-4955-8012-B89204F59034}"/>
   <bookViews>
-    <workbookView xWindow="23400" yWindow="1608" windowWidth="20736" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,12 +891,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="39">
@@ -1428,9 +1422,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1468,7 +1462,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1574,7 +1568,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1716,7 +1710,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1745,7 +1739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM8" sqref="BM8"/>
+      <selection pane="topRight" activeCell="BJ9" sqref="BJ9:BL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2212,15 +2206,6 @@
       <c r="BG3" t="s">
         <v>162</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
@@ -2675,6 +2660,15 @@
       </c>
       <c r="BG9" t="s">
         <v>162</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>181</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
@@ -5068,45 +5062,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5581,8 +5538,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5595,6 +5589,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B07B5033-D5DE-4350-9115-AE6084B69DB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5603,18 +5628,7 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B07B5033-D5DE-4350-9115-AE6084B69DB8}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
